--- a/app/newSetManageo/excel-e19c0ac5-c439-4c9b-a93e-0c45ce300a5d.xlsx
+++ b/app/newSetManageo/excel-e19c0ac5-c439-4c9b-a93e-0c45ce300a5d.xlsx
@@ -389,17 +389,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>54396254</t>
+          <t>318257730</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>05439625400028</t>
+          <t>31825773000024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ALOALO</t>
+          <t>VALDES LUCIEN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -409,88 +409,80 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ALOALO</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>ALOALO - MAYOTTE COMPETENCES</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>DOUJANI</t>
-        </is>
-      </c>
+          <t>MONSIEUR LUCIEN VALDES</t>
+        </is>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1 RUE DE LA MOSQUEE</t>
+          <t>200 CHEMIN DU CALVAIRE</t>
         </is>
       </c>
       <c r="I2"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>97600 MAMOUDZOU</t>
+          <t>40300 OEYREGAVE</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>976611</t>
+          <t>40206</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>MAMOUDZOU</t>
+          <t>OEYREGAVE</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>97600</t>
+          <t>40300</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>MAYOTTE</t>
+          <t>LANDES</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>40</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>MAYOTTE</t>
+          <t>NOUVELLE AQUITAINE</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (sans autre indication)</t>
+          <t>Artisan</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Formation continue d'adultes</t>
+          <t>Récupération de déchets triés</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>8559A</t>
+          <t>3832Z</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Formation continue pour les adultes</t>
+          <t>Récupération, tri, recyclage, valorisation des déchets ménagers, assimilés</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>12/2004</t>
+          <t>01/1980</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -513,53 +505,27 @@
           <t>XXX</t>
         </is>
       </c>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>adoption</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>enfants</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>familles</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>histoire</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>nature</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>navigateur</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>photos</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>rouge</t>
-        </is>
-      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
       <c r="AK2"/>
       <c r="AL2"/>
-      <c r="AM2" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="AM2"/>
       <c r="AN2" t="inlineStr">
         <is>
           <t>NON</t>
@@ -569,20 +535,12 @@
       <c r="AP2"/>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0269613434</t>
+          <t>0679429158</t>
         </is>
       </c>
       <c r="AR2"/>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>Alo May'Job</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>[35, 41]</t>
-        </is>
-      </c>
+      <c r="AS2"/>
+      <c r="AT2"/>
       <c r="AU2"/>
       <c r="AV2"/>
       <c r="AW2"/>
@@ -592,11 +550,7 @@
       <c r="BA2"/>
       <c r="BB2"/>
       <c r="BC2"/>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>http://www.aloalo.fr/</t>
-        </is>
-      </c>
+      <c r="BD2"/>
       <c r="BE2"/>
       <c r="BF2"/>
       <c r="BG2"/>
@@ -607,116 +561,114 @@
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BJ2"/>
       <c r="BK2"/>
-      <c r="BL2" t="n">
-        <v>391589.0</v>
-      </c>
+      <c r="BL2"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>120020011</t>
+          <t>324244516</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12002001101619</t>
+          <t>32424451600021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIRECTION DES RESSOURCES HUMAINES DES MINISTERES ECONOMIQUES ET FINANCIERS</t>
+          <t>LATALLERIE MICHEL YVON BERNARD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>établissement</t>
+          <t>siège</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DIRECTION DES RESSOURCES HUMAINES DES MINISTERES ECONOMIQUES ET FINANCIERS</t>
+          <t>MONSIEUR MICHEL LATALLERIE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>INSTITUT GESTION PUB DEVELOPPEMENT ECO</t>
+          <t>GARAMBEAU</t>
         </is>
       </c>
       <c r="G3"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20 ALL GEORGES POMPIDOU</t>
+          <t>28 RUE DE LA GRANDE MAISON</t>
         </is>
       </c>
       <c r="I3"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>94300 VINCENNES</t>
+          <t>44119 TREILLIERES</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>94080</t>
+          <t>44209</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>VINCENNES</t>
+          <t>TREILLIERES</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>94300</t>
+          <t>44119</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>VAL-DE-MARNE</t>
+          <t>LOIRE-ATLANTIQUE</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>44</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>ILE-DE-FRANCE</t>
+          <t>PAYS DE LA LOIRE</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Service central d'un ministère</t>
+          <t>Artisan</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Formation continue d'adultes</t>
+          <t>Travaux de revêtement des sols et des murs</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>8559A</t>
+          <t>4333Z</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Formation continue pour les adultes</t>
+          <t>Travaux de revêtement des sols et des murs</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>06/1981</t>
+          <t>04/1982</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -741,64 +693,24 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1000 à 1999</t>
+          <t>1 ou 2</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>250 à 499</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>économique</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>portail</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>consommation</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>entreprise</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>ministre</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>pratiquer</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>infantile</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>commercial</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>produit</t>
-        </is>
-      </c>
+          <t>1 ou 2</t>
+        </is>
+      </c>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
       <c r="AM3"/>
       <c r="AN3" t="inlineStr">
         <is>
@@ -809,7 +721,7 @@
       <c r="AP3"/>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0158648108</t>
+          <t>0240945374</t>
         </is>
       </c>
       <c r="AR3"/>
@@ -824,26 +736,10 @@
       <c r="BA3"/>
       <c r="BB3"/>
       <c r="BC3"/>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>economie.gouv.fr</t>
-        </is>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>http://facebook.com/blm27/</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>https://twitter.com/dgccrf</t>
-        </is>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>https://fr.linkedin.com/in/alicezagu</t>
-        </is>
-      </c>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
       <c r="BH3" t="inlineStr">
         <is>
           <t>XXX</t>
@@ -851,7 +747,7 @@
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BJ3"/>
@@ -861,104 +757,104 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>120027016</t>
+          <t>325005858</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12002701600167</t>
+          <t>32500585800023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>INSTITUT NATIONAL DE LA STATISTIQUE ET DES ETUDES ECONOMIQUES</t>
+          <t>BAYET ALAIN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>établissement</t>
+          <t>siège</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>INSTITUT NATIONAL DE LA STATISTIQUE ET DES ETUDES ECONOMIQUES</t>
+          <t>MONSIEUR ALAIN BAYET</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CTRE FORMATION INSEE LIBOURNE CEFIL</t>
+          <t>ELAG HAIES</t>
         </is>
       </c>
       <c r="G4"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3 RUE DE LA CITE</t>
+          <t>QUARTIER LADIVERT</t>
         </is>
       </c>
       <c r="I4"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>33500 LIBOURNE</t>
+          <t>31440 ST BEAT</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>33243</t>
+          <t>31471</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>LIBOURNE</t>
+          <t>SAINT BEAT</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>33500</t>
+          <t>31440</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>GIRONDE</t>
+          <t>HAUTE-GARONNE</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>NOUVELLE AQUITAINE</t>
+          <t>OCCITANIE</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Service central d'un ministère</t>
+          <t>Artisan</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Formation continue d'adultes</t>
+          <t>Services d'aménagement paysager</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>8559A</t>
+          <t>8130Z</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Formation continue pour les adultes</t>
+          <t>Paysagistes d'intérieur, d'extérieur</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>03/1983</t>
+          <t>07/1982</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -983,64 +879,24 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>5000 à 9999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>50 à 99</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adjoints</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>chantiers</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>circuit</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>consommation</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>enseignement</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>femmes</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>festival</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>hommes</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>kiosque</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>logements</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
       <c r="AM4"/>
       <c r="AN4" t="inlineStr">
         <is>
@@ -1051,66 +907,22 @@
       <c r="AP4"/>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0557555600</t>
+          <t>0561794678</t>
         </is>
       </c>
       <c r="AR4"/>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>COMMUNES... REFERENCES</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>[00, 09, 16, 35, 38, 41, 42]</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>Fiche profil</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>[00, 09, 16, 35, 38, 41, 42]</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>Fiche carto</t>
-        </is>
-      </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>[00, 09, 16, 35, 38, 41, 42]</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Atlas des populations immigrées dans la région "nom de la région"</t>
-        </is>
-      </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>[00, 09, 16, 35, 38, 41, 42]</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
-        <is>
-          <t>Fiche cartographique</t>
-        </is>
-      </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>[00, 09, 16, 35, 38, 41, 42]</t>
-        </is>
-      </c>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
       <c r="BC4"/>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>http://www.cefil.insee.fr/cont.php</t>
-        </is>
-      </c>
+      <c r="BD4"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
@@ -1121,7 +933,7 @@
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BJ4"/>
@@ -1443,248 +1255,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>54396254</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>05439625400028</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ALOALO</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>siège</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ALOALO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>ALOALO - MAYOTTE COMPETENCES</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>DOUJANI</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1 RUE DE LA MOSQUEE</t>
-        </is>
-      </c>
-      <c r="O2"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>97600 MAMOUDZOU</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>976611</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>MAMOUDZOU</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>97600</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>MAYOTTE</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>976</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>MAYOTTE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Société à responsabilité limitée (sans autre indication)</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Formation continue d'adultes</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>8559A</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Formation continue pour les adultes</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>12/2004</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>adoption</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>enfants</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>familles</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>histoire</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>nature</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>navigateur</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>photos</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>rouge</t>
-        </is>
-      </c>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>0269613434</t>
-        </is>
-      </c>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>http://www.aloalo.fr/</t>
-        </is>
-      </c>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2" t="n">
-        <v>391589.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
